--- a/biology/Médecine/Veine_basilique/Veine_basilique.xlsx
+++ b/biology/Médecine/Veine_basilique/Veine_basilique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La veine basilique (ou veine royale) est la plus grosse veine superficielle du membre supérieur qui permet de drainer certaines parties de la main et de l'avant- bras[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La veine basilique (ou veine royale) est la plus grosse veine superficielle du membre supérieur qui permet de drainer certaines parties de la main et de l'avant- bras.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La veine basilique prend naissance à partir du côté médial du réseau veineux dorsal de la main.
 Elle remonte la base de l'avant-bras, où son parcours est généralement visible à travers la peau lorsqu'elle se déplace dans la graisse sous-cutanée.
@@ -545,10 +559,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avec d'autres veines superficielles de l'avant-bras, la veine basilique est un site pour les prélèvements sanguins. Néanmoins, avec le bras généralement en supination pendant la prise de sang, la veine basilique devient difficile d'accès et est donc rarement utilisée.
-En chirurgie vasculaire, la veine basilique est parfois utilisée pour créer une fistule artério-veineuse pour permettre l'hémodialyse chez les patients souffrant d'insuffisance rénale[2].
+En chirurgie vasculaire, la veine basilique est parfois utilisée pour créer une fistule artério-veineuse pour permettre l'hémodialyse chez les patients souffrant d'insuffisance rénale.
 </t>
         </is>
       </c>
